--- a/DATA_goal/Junction_Flooding_391.xlsx
+++ b/DATA_goal/Junction_Flooding_391.xlsx
@@ -447,7 +447,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -461,19 +461,19 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -759,103 +759,103 @@
         <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.48</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.83</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.81</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.25</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="L3" s="4" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>6.64</v>
+        <v>66.36</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.6</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.75</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.49</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.72</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.01</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.27</v>
+        <v>22.67</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.72</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.68</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>89.62</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.36</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.2</v>
+        <v>11.97</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.09</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.24</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.15</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.93</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.58</v>
       </c>
       <c r="I5" s="4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.27</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.13</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="AD5" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_391.xlsx
+++ b/DATA_goal/Junction_Flooding_391.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45072.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>18.737</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>12.527</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.029</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>39.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>14.745</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>46.499</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>22.687</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>14.208</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>15.679</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>16.314</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>4.706</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>14.663</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>20.445</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>12.568</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.441</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.244</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>215.823</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>40.754</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>13.534</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>26.795</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>13.632</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.069</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>23.634</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>11.955</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>12.744</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>16.181</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.455</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>41.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>7.422</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45072.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.81</v>
+        <v>14.893</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.4</v>
+        <v>10.472</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>1.759</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.48</v>
+        <v>32.18</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.83</v>
+        <v>25.957</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.22</v>
+        <v>11.721</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.81</v>
+        <v>45.586</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.13</v>
+        <v>18.033</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.25</v>
+        <v>7.766</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.01</v>
+        <v>11.436</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.51</v>
+        <v>12.868</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.92</v>
+        <v>13.434</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.87</v>
+        <v>3.745</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.55</v>
+        <v>11.655</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.72</v>
+        <v>16.406</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.74</v>
+        <v>10.076</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>1.536</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.65</v>
+        <v>1.025</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>66.36</v>
+        <v>170.083</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.6</v>
+        <v>32.635</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.18</v>
+        <v>10.758</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.75</v>
+        <v>21.603</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.4</v>
+        <v>11.2</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.11</v>
+        <v>2.132</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.28</v>
+        <v>22.128</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.84</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.93</v>
+        <v>8.615</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.25</v>
+        <v>10.099</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.6</v>
+        <v>13.352</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.72</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.49</v>
+        <v>41.503</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.8</v>
+        <v>5.93</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.31</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45072.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.91</v>
+        <v>22.1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.94</v>
+        <v>16.138</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.512</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.72</v>
+        <v>47.976</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.01</v>
+        <v>39.183</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.97</v>
+        <v>17.391</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22.67</v>
+        <v>66.31399999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>26.759</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.41</v>
+        <v>11.803</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.61</v>
+        <v>17.46</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.72</v>
+        <v>19.247</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.68</v>
+        <v>20.238</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.2</v>
+        <v>5.555</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.17</v>
+        <v>17.294</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.07</v>
+        <v>24.548</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.11</v>
+        <v>14.656</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.096</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.989</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.62</v>
+        <v>255.923</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.36</v>
+        <v>48.346</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.68</v>
+        <v>15.963</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.97</v>
+        <v>32.394</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.09</v>
+        <v>16.946</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.14</v>
+        <v>2.68</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.24</v>
+        <v>32.372</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.15</v>
+        <v>14.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.83</v>
+        <v>12.567</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.52</v>
+        <v>14.762</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.02</v>
+        <v>20.126</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>20.93</v>
+        <v>60.151</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.55</v>
+        <v>8.948</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.16</v>
+        <v>19.958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45072.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.22</v>
+        <v>23.54</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.66</v>
+        <v>17.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.18</v>
+        <v>51.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.54</v>
+        <v>41.91</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.56</v>
+        <v>18.53</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.58</v>
+        <v>72.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.72</v>
+        <v>28.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.36</v>
+        <v>12.65</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.94</v>
+        <v>18.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.51</v>
+        <v>20.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.34</v>
+        <v>21.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.71</v>
+        <v>5.92</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.71</v>
+        <v>18.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.75</v>
+        <v>26.21</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.43</v>
+        <v>15.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.93</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.13</v>
+        <v>273.1</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.17</v>
+        <v>51.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.57</v>
+        <v>17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.74</v>
+        <v>34.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.75</v>
+        <v>18.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.47</v>
+        <v>2.73</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.86</v>
+        <v>35.03</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.52</v>
+        <v>13.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.69</v>
+        <v>15.66</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.58</v>
+        <v>21.51</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.24</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.14</v>
+        <v>9.57</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.21</v>
+        <v>21.26</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_391.xlsx
+++ b/DATA_goal/Junction_Flooding_391.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45072.50694444445</v>
+        <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.737</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.527</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.029</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>39.827</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>31.89</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.745</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>46.499</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.687</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.44</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.208</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.679</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.314</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.706</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.663</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.445</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.568</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.441</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.244</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>215.823</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>40.754</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.534</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.795</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.632</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.069</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>23.634</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.955</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.86</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.744</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.181</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.455</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>41.233</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.422</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45072.51388888889</v>
+        <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.893</v>
+        <v>5.808</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.472</v>
+        <v>4.397</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.759</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>32.18</v>
+        <v>13.479</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.957</v>
+        <v>11.83</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.721</v>
+        <v>4.217</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.586</v>
+        <v>12.812</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.033</v>
+        <v>7.127</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.766</v>
+        <v>3.254</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.436</v>
+        <v>5.01</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.868</v>
+        <v>6.51</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.434</v>
+        <v>5.92</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>4.551</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>6.724</v>
+      </c>
+      <c r="Q3" s="4" t="n">
         <v>3.745</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>11.655</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>16.406</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>10.076</v>
-      </c>
       <c r="R3" s="4" t="n">
-        <v>1.536</v>
+        <v>0.065</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.025</v>
+        <v>0.655</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>170.083</v>
+        <v>66.36</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>32.635</v>
+        <v>12.601</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.758</v>
+        <v>4.175</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>21.603</v>
+        <v>8.75</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.2</v>
+        <v>4.398</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.132</v>
+        <v>1.108</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.128</v>
+        <v>6.285</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>3.836</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.615</v>
+        <v>3.934</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.099</v>
+        <v>4.252</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.352</v>
+        <v>6.603</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.265</v>
+        <v>0.721</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>41.503</v>
+        <v>11.49</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.93</v>
+        <v>2.799</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.45</v>
+        <v>5.313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45072.52083333334</v>
+        <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.1</v>
+        <v>7.907</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.138</v>
+        <v>5.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.512</v>
+        <v>0.102</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>47.976</v>
+        <v>17.723</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.183</v>
+        <v>15.01</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.391</v>
+        <v>5.973</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>66.31399999999999</v>
+        <v>22.674</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.759</v>
+        <v>9.625</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.803</v>
+        <v>4.41</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.46</v>
+        <v>6.614</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.247</v>
+        <v>7.724</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.238</v>
+        <v>7.684</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.555</v>
+        <v>2.202</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.294</v>
+        <v>6.169</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.548</v>
+        <v>9.068</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.656</v>
+        <v>5.113</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.096</v>
+        <v>0.074</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.989</v>
+        <v>0.522</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>255.923</v>
+        <v>89.62</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>48.346</v>
+        <v>17.365</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.963</v>
+        <v>5.678</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>32.394</v>
+        <v>11.969</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.946</v>
+        <v>6.095</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.68</v>
+        <v>1.135</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>32.372</v>
+        <v>11.241</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.1</v>
+        <v>5.15</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.567</v>
+        <v>4.835</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.762</v>
+        <v>5.524</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.126</v>
+        <v>8.022</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0.386</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>60.151</v>
+        <v>20.932</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.948</v>
+        <v>3.55</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.958</v>
+        <v>7.158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45072.52777777778</v>
+        <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.54</v>
+        <v>2.216</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.34</v>
+        <v>1.656</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.15</v>
+        <v>5.177</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.91</v>
+        <v>4.539</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.53</v>
+        <v>1.555</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>72.17</v>
+        <v>10.582</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.5</v>
+        <v>2.72</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.65</v>
+        <v>1.361</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.73</v>
+        <v>1.94</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.53</v>
+        <v>2.509</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.63</v>
+        <v>2.339</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.92</v>
+        <v>0.706</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.42</v>
+        <v>1.713</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.21</v>
+        <v>2.749</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.53</v>
+        <v>1.434</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.023</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.27</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>273.1</v>
+        <v>21.126</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>51.53</v>
+        <v>5.172</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17</v>
+        <v>1.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>34.63</v>
+        <v>3.743</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.14</v>
+        <v>1.745</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.73</v>
+        <v>0.469</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.03</v>
+        <v>4.856</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.02</v>
+        <v>1.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.33</v>
+        <v>1.518</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.66</v>
+        <v>1.689</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.51</v>
+        <v>2.581</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>65.51000000000001</v>
+        <v>10.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.57</v>
+        <v>1.138</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.26</v>
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44784.20137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_391.xlsx
+++ b/DATA_goal/Junction_Flooding_391.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45072.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>18.737</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>12.527</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.029</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>39.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>14.745</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>46.499</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>22.687</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>14.208</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>15.679</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>16.314</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>4.706</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>14.663</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>20.445</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>12.568</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.441</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.244</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>215.823</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>40.754</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>13.534</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>26.795</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>13.632</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.069</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>23.634</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>11.955</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>12.744</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>16.181</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.455</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>41.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>7.422</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45072.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.808</v>
+        <v>14.893</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.397</v>
+        <v>10.472</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>1.759</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.479</v>
+        <v>32.18</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.83</v>
+        <v>25.957</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.217</v>
+        <v>11.721</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.812</v>
+        <v>45.586</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.127</v>
+        <v>18.033</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.254</v>
+        <v>7.766</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.01</v>
+        <v>11.436</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.51</v>
+        <v>12.868</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.92</v>
+        <v>13.434</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.874</v>
+        <v>3.745</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.551</v>
+        <v>11.655</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.724</v>
+        <v>16.406</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.745</v>
+        <v>10.076</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.065</v>
+        <v>1.536</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.655</v>
+        <v>1.025</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>66.36</v>
+        <v>170.083</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.601</v>
+        <v>32.635</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.175</v>
+        <v>10.758</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.75</v>
+        <v>21.603</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.398</v>
+        <v>11.2</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.108</v>
+        <v>2.132</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.285</v>
+        <v>22.128</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.836</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.934</v>
+        <v>8.615</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.252</v>
+        <v>10.099</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.603</v>
+        <v>13.352</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.721</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.49</v>
+        <v>41.503</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.799</v>
+        <v>5.93</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.313</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45072.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.907</v>
+        <v>22.1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.94</v>
+        <v>16.138</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.102</v>
+        <v>1.512</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.723</v>
+        <v>47.976</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.01</v>
+        <v>39.183</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.973</v>
+        <v>17.391</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22.674</v>
+        <v>66.31399999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.625</v>
+        <v>26.759</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.41</v>
+        <v>11.803</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.614</v>
+        <v>17.46</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.724</v>
+        <v>19.247</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.684</v>
+        <v>20.238</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.202</v>
+        <v>5.555</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.169</v>
+        <v>17.294</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.068</v>
+        <v>24.548</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.113</v>
+        <v>14.656</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.074</v>
+        <v>1.096</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.522</v>
+        <v>0.989</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.62</v>
+        <v>255.923</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.365</v>
+        <v>48.346</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.678</v>
+        <v>15.963</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.969</v>
+        <v>32.394</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.095</v>
+        <v>16.946</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.135</v>
+        <v>2.68</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.241</v>
+        <v>32.372</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.15</v>
+        <v>14.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.835</v>
+        <v>12.567</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.524</v>
+        <v>14.762</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.022</v>
+        <v>20.126</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.386</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>20.932</v>
+        <v>60.151</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.55</v>
+        <v>8.948</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.158</v>
+        <v>19.958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45072.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.216</v>
+        <v>23.54</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.656</v>
+        <v>17.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.001</v>
+        <v>1.34</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.177</v>
+        <v>51.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.539</v>
+        <v>41.91</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.555</v>
+        <v>18.53</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.582</v>
+        <v>72.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.72</v>
+        <v>28.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.361</v>
+        <v>12.65</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.94</v>
+        <v>18.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.509</v>
+        <v>20.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.339</v>
+        <v>21.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.706</v>
+        <v>5.92</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.713</v>
+        <v>18.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.749</v>
+        <v>26.21</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.434</v>
+        <v>15.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.023</v>
+        <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.93</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.126</v>
+        <v>273.1</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.172</v>
+        <v>51.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.57</v>
+        <v>17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.743</v>
+        <v>34.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.745</v>
+        <v>18.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.469</v>
+        <v>2.73</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.856</v>
+        <v>35.03</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.518</v>
+        <v>13.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.689</v>
+        <v>15.66</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.581</v>
+        <v>21.51</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.24</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.138</v>
+        <v>9.57</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.21</v>
+        <v>21.26</v>
       </c>
     </row>
   </sheetData>
